--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_152.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_152.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,718 +488,704 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(3.66, 7.56)]</t>
+          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(6.92, 13.46)]</t>
+          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:01.480000', '0:01:03.580000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj', 'C:min/G']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(37.54, 45.38)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(110.32, 122.84)]</t>
+          <t>[('0:01:41.060000', '0:01:42.380000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:36.320000', '0:00:51.920000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1369047619047619</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_255</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1483870967741935</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G', 'G', 'D/3']]</t>
+          <t>[['A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(52.711123, 59.224321)]</t>
+          <t>[['D:min', 'G:min/5', 'D:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(78.061859, 81.614512)]</t>
+          <t>[('0:00:13.520000', '0:00:19.880000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+          <t>[('0:00:27.789047', '0:00:31.109501')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(16.88, 32.5)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(2.36, 7.56)]</t>
+          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:54.180000', '0:01:01.460000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>isophonics_123</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_64</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7758620689655172</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['A', 'E', 'A', 'E', 'A', 'E', 'A', 'E', 'A', 'E', 'A', 'E', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(39.8, 45.4)]</t>
+          <t>[['D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(31.34, 33.52)]</t>
+          <t>[('0:00:41.336219', '0:00:56.966621')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:03:12.882000', '0:04:13.747000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5515151515151515</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(90.78, 101.32), (41.58, 43.48)]</t>
+          <t>[['C', 'G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(25.48, 32.8), (74.5, 80.42)]</t>
+          <t>[('0:01:47.100000', '0:01:49.300000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:10.519024', '0:01:22.732721')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0572717806317251</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:min', 'D:min', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_50</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2697674418604651</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:min', 'A:min/b7', 'A:min/6']]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(27.2, 40.32)]</t>
+          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(0.06, 6.451609)]</t>
+          <t>[('0:00:09.560000', '0:00:32.440000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>[('0:00:38.120000', '0:00:52.640000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(38.12, 52.64)]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(11.5, 37.58)]</t>
+          <t>[('0:00:17.900000', '0:00:21.420000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:03:46.020000', '0:04:01.060000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1334681496461072</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(25.48, 32.58), (74.1, 80.04)]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(97.88, 108.98), (47.58, 50.04)]</t>
+          <t>[('0:00:03', '0:00:07.380000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:09.900000', '0:00:26.980000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_100</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_140</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['A:min', 'E:7/A', 'E:(3,5,b7,b9)/A', 'A:min', 'E:(3,5,b7,b9)/A', 'A:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(2.98, 6.7)]</t>
+          <t>[['C:min', 'G:7/C', 'G:(3,5,b7,b9)/C', 'C:min', 'G:(3,5,b7,b9)/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(6.92, 13.46)]</t>
+          <t>[('0:00:14.460000', '0:00:46.680000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:13.640000', '0:00:43.660000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj', 'C:min/G']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_69</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(110.32, 122.84)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(36.4, 44.08)]</t>
+          <t>[('0:00:09.620000', '0:00:14.180000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:42.360000', '0:00:50.360000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_121</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_32</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1980676328502415</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['A', 'B', 'E', 'E/7']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(35.82, 37.76), (35.6, 37.24), (8.46, 13.46)]</t>
+          <t>[['G', 'A', 'D', 'D/b7']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(12.26, 25.04), (49.4, 56.76), (1.44, 6.66)]</t>
+          <t>[('0:00:07.935986', '0:00:13.148866')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:29.965374', '0:00:35.781972')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(11.0, 16.52)]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(107.4, 126.86)]</t>
+          <t>[('0:00:00.220000', '0:00:21.940000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:00.380000', '0:00:21.840000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(40.46, 43.62)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(21.02, 31.86)]</t>
+          <t>[('0:02:01.740000', '0:02:08.480000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:52.140000', '0:01:57.460000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(10.56, 16.4)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(94.68, 110.76)]</t>
+          <t>[('0:00:08.340000', '0:00:26.400000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:09.240000', '0:00:28.040000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_88</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(19.36, 22.38)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(5.78, 12.6)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
